--- a/Ch4/datasets/boxoffice_by_month.xlsx
+++ b/Ch4/datasets/boxoffice_by_month.xlsx
@@ -22,7 +22,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
